--- a/Ausarbeitung plus abgabe/alle_sentiment.xlsx
+++ b/Ausarbeitung plus abgabe/alle_sentiment.xlsx
@@ -8,23 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lisa/Desktop/Seminar/Ausarbeitung plus abgabe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63D47F1-B407-D64E-A8A9-673107629BF5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD365F7-A02B-1D4A-8395-3075CEE5940F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt 1 - alle_sentiment" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.2" hidden="1">'Blatt 1 - alle_sentiment'!$F$3:$F$1171</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Blatt 1 - alle_sentiment'!$F$3:$F$1171</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Blatt 1 - alle_sentiment'!$F$3:$F$1171</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Blatt 1 - alle_sentiment'!$D$3:$D$1171</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Blatt 1 - alle_sentiment'!$E$3:$E$1171</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Blatt 1 - alle_sentiment'!$F$3:$F$1171</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">'Blatt 1 - alle_sentiment'!$D$3:$D$1171</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'Blatt 1 - alle_sentiment'!$F$3:$F$1171</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Blatt 1 - alle_sentiment'!$F$3:$F$1171</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="1178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="1179">
   <si>
     <t>alle_sentiment</t>
   </si>
@@ -3572,6 +3565,9 @@
   </si>
   <si>
     <t>Durchschnitt</t>
+  </si>
+  <si>
+    <t>AFD Count im Namen:</t>
   </si>
 </sst>
 </file>
@@ -3781,7 +3777,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3817,16 +3813,6 @@
           <color rgb="FF9C0006"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0"/>
@@ -3931,6 +3917,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>positive</c:v>
+          </c:tx>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -3957,6 +3946,11 @@
                 </a:innerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4DA4-944D-B885-047B3496B9AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3984,6 +3978,11 @@
                 </a:innerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4DA4-944D-B885-047B3496B9AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4011,6 +4010,11 @@
                 </a:innerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4DA4-944D-B885-047B3496B9AA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -10290,8 +10294,8 @@
   </sheetPr>
   <dimension ref="A1:IV1280"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E4" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F1180" sqref="F1180"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O2" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G1168" sqref="G1168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -33777,7 +33781,7 @@
     </row>
     <row r="1176" spans="1:6" ht="20" customHeight="1">
       <c r="A1176" s="9"/>
-      <c r="B1176" s="10"/>
+      <c r="B1176" s="7"/>
       <c r="C1176" s="11"/>
       <c r="D1176" s="11"/>
       <c r="E1176" s="11"/>
@@ -33785,8 +33789,13 @@
     </row>
     <row r="1177" spans="1:6" ht="20" customHeight="1">
       <c r="A1177" s="9"/>
-      <c r="B1177" s="10"/>
-      <c r="C1177" s="11"/>
+      <c r="B1177" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C1177" s="11">
+        <f>SUM(ISNUMBER(FIND("afd",B3:B1171)))</f>
+        <v>0</v>
+      </c>
       <c r="D1177" s="11"/>
       <c r="E1177" s="11"/>
       <c r="F1177" s="11"/>

--- a/Ausarbeitung plus abgabe/alle_sentiment.xlsx
+++ b/Ausarbeitung plus abgabe/alle_sentiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lisa/Desktop/Seminar/Ausarbeitung plus abgabe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C51240-B495-F14A-A59D-EC1CF3A69D57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4830C82-A157-CE47-9D21-CBE177317C7A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3773,27 +3773,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3822,6 +3842,52 @@
           <color rgb="FF9C0006"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0"/>
@@ -3905,301 +3971,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>positive</c:v>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="ltUpDiag">
-                <a:fgClr>
-                  <a:schemeClr val="accent1"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:innerShdw blurRad="114300">
-                  <a:schemeClr val="accent1"/>
-                </a:innerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-4DA4-944D-B885-047B3496B9AA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="ltUpDiag">
-                <a:fgClr>
-                  <a:schemeClr val="accent3"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:innerShdw blurRad="114300">
-                  <a:schemeClr val="accent3"/>
-                </a:innerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-4DA4-944D-B885-047B3496B9AA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="ltUpDiag">
-                <a:fgClr>
-                  <a:schemeClr val="accent5"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:innerShdw blurRad="114300">
-                  <a:schemeClr val="accent5"/>
-                </a:innerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-4DA4-944D-B885-047B3496B9AA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Blatt 1 - alle_sentiment'!$D$1174:$F$1174</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>18.456800684345595</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65.985457656116338</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.391787852865697</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9D23-0C48-8091-D2DDD6A511DA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -8022,7 +7793,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -8043,11 +7814,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -8056,12 +7827,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Sentiment</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> pro user</a:t>
+              <a:rPr lang="de-DE" sz="2400"/>
+              <a:t>Sentiment pro user</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8079,11 +7846,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -8107,47 +7874,482 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="50000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="35000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="37000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="15000"/>
+                      <a:satMod val="350000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="1"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-BE15-BF4E-9A88-13F20E6E1AEA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:tint val="50000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="35000">
+                    <a:schemeClr val="accent3">
+                      <a:tint val="37000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:tint val="15000"/>
+                      <a:satMod val="350000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="1"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BE15-BF4E-9A88-13F20E6E1AEA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="50000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="35000">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="37000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="15000"/>
+                      <a:satMod val="350000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="1"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BE15-BF4E-9A88-13F20E6E1AEA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14194225902714494"/>
+                  <c:y val="0.22480080438035085"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                      <a:t>positive</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{3C7B42D6-C121-4743-BB11-18C44AB2134C}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[PROZENTSATZ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.18983496839892805"/>
+                      <c:h val="0.13858465840463144"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-BE15-BF4E-9A88-13F20E6E1AEA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.0259155353807088E-2"/>
+                  <c:y val="-0.22385586339167599"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                      <a:t>neutral
+</a:t>
+                    </a:r>
+                    <a:fld id="{22A99613-9582-2845-9D2C-31BB316BC2DA}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[PROZENTSATZ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="2000" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.28394752481138036"/>
+                      <c:h val="0.14083916724479137"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-BE15-BF4E-9A88-13F20E6E1AEA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10814198781269299"/>
+                  <c:y val="0.22502163973445788"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="2000"/>
+                      <a:t>negative</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{F094C674-5202-EC47-B675-9EF1C6E3718D}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[PROZENTSATZ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.120669136151016"/>
+                      <c:h val="0.13013025025403166"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-BE15-BF4E-9A88-13F20E6E1AEA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>('Blatt 1 - alle_sentiment'!$D$2,'Blatt 1 - alle_sentiment'!$E$2,'Blatt 1 - alle_sentiment'!$F$2)</c:f>
@@ -8190,11 +8392,12 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -8223,11 +8426,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -8284,43 +8487,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8360,7 +8526,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent3"/>
@@ -8398,540 +8564,6 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="252">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9447,19 +9079,19 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="254">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -9467,8 +9099,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -9489,7 +9121,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -9513,8 +9145,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -9548,50 +9180,51 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
+    <cs:spPr/>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9603,30 +9236,33 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -9643,20 +9279,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -9666,7 +9300,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -9675,14 +9309,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -9691,17 +9324,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -9710,17 +9343,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -9729,21 +9361,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -9762,17 +9388,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -9781,17 +9406,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -9800,17 +9425,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -9820,8 +9444,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -9831,7 +9455,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -9839,7 +9463,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -9848,10 +9472,21 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -9859,17 +9494,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -9879,27 +9514,26 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -9909,8 +9543,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -9920,20 +9554,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9943,8 +9576,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -9954,56 +9587,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>629226</xdr:colOff>
-      <xdr:row>1166</xdr:row>
-      <xdr:rowOff>71580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>155223</xdr:colOff>
-      <xdr:row>1183</xdr:row>
-      <xdr:rowOff>183443</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Diagramm 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A8C1FCC-EB9C-7C4C-80F2-AAB397F33CA6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -10034,7 +9625,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10043,15 +9634,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>338667</xdr:colOff>
+      <xdr:colOff>338666</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>124177</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>522111</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>56443</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10070,7 +9661,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11156,8 +10747,8 @@
   </sheetPr>
   <dimension ref="A1:IV1280"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A357" zoomScale="105" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B378" sqref="B378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11172,14 +10763,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -11745,7 +11336,7 @@
       <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="8">
@@ -11785,7 +11376,7 @@
       <c r="A32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="8">
@@ -12125,7 +11716,7 @@
       <c r="A49" s="6">
         <v>47</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="8">
@@ -12205,7 +11796,7 @@
       <c r="A53" s="6">
         <v>51</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="12" t="s">
         <v>54</v>
       </c>
       <c r="C53" s="8">
@@ -12265,7 +11856,7 @@
       <c r="A56" s="6">
         <v>54</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C56" s="8">
@@ -12585,7 +12176,7 @@
       <c r="A72" s="6">
         <v>70</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C72" s="8">
@@ -12765,7 +12356,7 @@
       <c r="A81" s="6">
         <v>79</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C81" s="8">
@@ -12885,7 +12476,7 @@
       <c r="A87" s="6">
         <v>85</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="12" t="s">
         <v>88</v>
       </c>
       <c r="C87" s="8">
@@ -13225,7 +12816,7 @@
       <c r="A104" s="6">
         <v>102</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C104" s="8">
@@ -13285,7 +12876,7 @@
       <c r="A107" s="6">
         <v>105</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="12" t="s">
         <v>108</v>
       </c>
       <c r="C107" s="8">
@@ -13325,7 +12916,7 @@
       <c r="A109" s="6">
         <v>107</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="12" t="s">
         <v>110</v>
       </c>
       <c r="C109" s="8">
@@ -13525,7 +13116,7 @@
       <c r="A119" s="6">
         <v>117</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="12" t="s">
         <v>120</v>
       </c>
       <c r="C119" s="8">
@@ -13645,7 +13236,7 @@
       <c r="A125" s="6">
         <v>123</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="12" t="s">
         <v>126</v>
       </c>
       <c r="C125" s="8">
@@ -13925,7 +13516,7 @@
       <c r="A139" s="6">
         <v>137</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="12" t="s">
         <v>140</v>
       </c>
       <c r="C139" s="8">
@@ -14145,7 +13736,7 @@
       <c r="A150" s="6">
         <v>148</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B150" s="12" t="s">
         <v>151</v>
       </c>
       <c r="C150" s="8">
@@ -14365,7 +13956,7 @@
       <c r="A161" s="6">
         <v>159</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B161" s="12" t="s">
         <v>162</v>
       </c>
       <c r="C161" s="8">
@@ -14405,7 +13996,7 @@
       <c r="A163" s="6">
         <v>161</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="B163" s="12" t="s">
         <v>164</v>
       </c>
       <c r="C163" s="8">
@@ -14465,7 +14056,7 @@
       <c r="A166" s="6">
         <v>164</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B166" s="12" t="s">
         <v>167</v>
       </c>
       <c r="C166" s="8">
@@ -14505,7 +14096,7 @@
       <c r="A168" s="6">
         <v>166</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B168" s="12" t="s">
         <v>169</v>
       </c>
       <c r="C168" s="8">
@@ -16045,7 +15636,7 @@
       <c r="A245" s="6">
         <v>243</v>
       </c>
-      <c r="B245" s="7" t="s">
+      <c r="B245" s="12" t="s">
         <v>246</v>
       </c>
       <c r="C245" s="8">
@@ -17805,7 +17396,7 @@
       <c r="A333" s="6">
         <v>331</v>
       </c>
-      <c r="B333" s="7" t="s">
+      <c r="B333" s="12" t="s">
         <v>334</v>
       </c>
       <c r="C333" s="8">
@@ -18865,7 +18456,7 @@
       <c r="A386" s="6">
         <v>384</v>
       </c>
-      <c r="B386" s="7" t="s">
+      <c r="B386" s="12" t="s">
         <v>387</v>
       </c>
       <c r="C386" s="8">
@@ -19025,7 +18616,7 @@
       <c r="A394" s="6">
         <v>392</v>
       </c>
-      <c r="B394" s="7" t="s">
+      <c r="B394" s="12" t="s">
         <v>395</v>
       </c>
       <c r="C394" s="8">
@@ -19225,7 +18816,7 @@
       <c r="A404" s="6">
         <v>402</v>
       </c>
-      <c r="B404" s="7" t="s">
+      <c r="B404" s="12" t="s">
         <v>405</v>
       </c>
       <c r="C404" s="8">
@@ -19785,7 +19376,7 @@
       <c r="A432" s="6">
         <v>430</v>
       </c>
-      <c r="B432" s="7" t="s">
+      <c r="B432" s="12" t="s">
         <v>433</v>
       </c>
       <c r="C432" s="8">
@@ -24945,7 +24536,7 @@
       <c r="A690" s="6">
         <v>688</v>
       </c>
-      <c r="B690" s="7" t="s">
+      <c r="B690" s="12" t="s">
         <v>691</v>
       </c>
       <c r="C690" s="8">
@@ -26465,7 +26056,7 @@
       <c r="A766" s="6">
         <v>764</v>
       </c>
-      <c r="B766" s="7" t="s">
+      <c r="B766" s="12" t="s">
         <v>767</v>
       </c>
       <c r="C766" s="8">
@@ -28045,7 +27636,7 @@
       <c r="A845" s="6">
         <v>843</v>
       </c>
-      <c r="B845" s="7" t="s">
+      <c r="B845" s="12" t="s">
         <v>846</v>
       </c>
       <c r="C845" s="8">
@@ -34651,7 +34242,7 @@
     </row>
     <row r="1177" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1177" s="9"/>
-      <c r="B1177" s="14" t="s">
+      <c r="B1177" s="13" t="s">
         <v>1178</v>
       </c>
       <c r="C1177" s="11">
@@ -35491,13 +35082,23 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="top10" dxfId="1" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="7" priority="7" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="5" priority="4" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1175:D1048576 D1:D1173">
-    <cfRule type="top10" dxfId="0" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="8" priority="10" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="top10" dxfId="2" priority="3" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F1171">
+    <cfRule type="top10" dxfId="1" priority="2" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D1171">
+    <cfRule type="top10" dxfId="0" priority="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
